--- a/src/main/java/pom/config/FreeCrmTestData.xlsx
+++ b/src/main/java/pom/config/FreeCrmTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\POMFrameWork\src\main\java\pom\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/sovv_softwareag_com/Documents/Desktop/Escriba Git/NewInits/POMFrameWork/src/main/java/pom/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F06DB-E7C9-43C1-AF93-7F274039453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{AC9F06DB-E7C9-43C1-AF93-7F274039453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEA02CAE-9468-4589-8664-4FC91085EC79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>firstname</t>
   </si>
@@ -42,43 +39,49 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
     <t>Peter</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
     <t>Cris</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
     <t>Mukta</t>
   </si>
   <si>
     <t>Sharma</t>
   </si>
   <si>
-    <t>Ebay</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>mobileno</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>jobless</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -411,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,52 +430,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="E4">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
@@ -508,10 +523,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3972CCD5-3FE2-45D2-8FFA-CA6C0D20827D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ee9ddd37-01c2-47a1-893c-5c0bdc1f6d39}" enabled="1" method="Privileged" siteId="{d9662eb9-ad98-4e74-a8a2-04ed5d544db6}" removed="0"/>
+</clbl:labelList>
 </file>